--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-JP-DeviceUseStatement.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-JP-DeviceUseStatement.xlsx
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -449,7 +449,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -544,7 +544,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -590,7 +590,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -801,7 +801,7 @@
 </t>
   </si>
   <si>
-    <t>「発言したのは誰ですか？」(Hatsugen shita no wa dare desu ka?)</t>
+    <t>「発言したのは誰ですか？」</t>
   </si>
   <si>
     <t>装置が患者によって使用されていると報告したのは誰ですか。</t>
